--- a/Lab1.3/Lab-1.3-Requirements Linkage Traceability Matrix.xlsx
+++ b/Lab1.3/Lab-1.3-Requirements Linkage Traceability Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaba\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FShop\Desktop\SE357-Pratice-class\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6115D8-2BA2-4325-97D3-D1AF726BB3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C14B145-3069-4D6E-ABBF-B3BF3DEC9FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="3090" windowWidth="21600" windowHeight="11295" xr2:uid="{26FFCE25-151A-40F0-9F51-80939D4665D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26FFCE25-151A-40F0-9F51-80939D4665D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,38 +297,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -339,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -347,38 +354,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{016603DC-DE64-4C70-921D-3C20CE6A4E2B}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,7 +420,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -693,24 +718,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8854E2F-0770-4487-8904-2AC368AD1999}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="66" zoomScaleNormal="30" zoomScalePageLayoutView="66" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="157.7109375" customWidth="1"/>
-    <col min="5" max="5" width="100.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="84.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>73</v>
       </c>
@@ -720,7 +745,7 @@
       <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -731,8 +756,8 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -741,16 +766,16 @@
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -759,16 +784,16 @@
       <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -777,10 +802,10 @@
       <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F4" s="1"/>
@@ -788,8 +813,8 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -798,16 +823,16 @@
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -816,374 +841,374 @@
       <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="8" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="E8" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="E9" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="E10" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="E11" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="E15" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="E17" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="E18" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="E19" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="E20" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="E21" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="E22" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="75.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="E24" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="E25" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="E26" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="75.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
+      <c r="E27" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1192,117 +1217,117 @@
       <c r="C28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="E28" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="E29" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="E30" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="E31" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="E32" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="E33" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="C34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="7" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lab1.3/Lab-1.3-Requirements Linkage Traceability Matrix.xlsx
+++ b/Lab1.3/Lab-1.3-Requirements Linkage Traceability Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FShop\Desktop\SE357-Pratice-class\Lab1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaba\OneDrive\Documents\GitHub\SE357-Pratice-class\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C14B145-3069-4D6E-ABBF-B3BF3DEC9FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14205BA6-53DB-493F-9D07-B60FCA8ECA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26FFCE25-151A-40F0-9F51-80939D4665D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26FFCE25-151A-40F0-9F51-80939D4665D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>Đăng nhập</t>
   </si>
@@ -62,15 +62,9 @@
     <t>Quản lí lịch làm việc nhân viên</t>
   </si>
   <si>
-    <t>Theo dõi doanh thu, chi phí</t>
-  </si>
-  <si>
     <t>Lập báo cáo tài chính</t>
   </si>
   <si>
-    <t>Theo dõi hàng hóa vật tư</t>
-  </si>
-  <si>
     <t>Lập phiếu nhập xuất kho</t>
   </si>
   <si>
@@ -80,21 +74,12 @@
     <t>CRUD đơn thuốc</t>
   </si>
   <si>
-    <t>Lưu trữ hồ sơ bệnh án</t>
-  </si>
-  <si>
     <t>In hồ sơ bệnh án</t>
   </si>
   <si>
-    <t>Theo dõi tình trạng thiết bị</t>
-  </si>
-  <si>
     <t>Lập kế hoạch bảo dưỡng thiết bị</t>
   </si>
   <si>
-    <t>CRUD quảng cáo</t>
-  </si>
-  <si>
     <t>CRUD voucher</t>
   </si>
   <si>
@@ -113,12 +98,6 @@
     <t>CRUD hợp đồng cung cấp vật tư</t>
   </si>
   <si>
-    <t>Mã hóa dữ liệu</t>
-  </si>
-  <si>
-    <t>CRUD khách hàng tiềm năng (doanh nghiệp)</t>
-  </si>
-  <si>
     <t>CRUD  thông tin phòng khám</t>
   </si>
   <si>
@@ -159,9 +138,6 @@
   </si>
   <si>
     <t>Người dùng có thể điền thông tin đăng ký cần thiết.Hệ thống sẽ tạo tài khoản mới sau khi người dùng hoàn thành đăng ký.</t>
-  </si>
-  <si>
-    <t>Dữ liệu quan trọng trong hệ thống phải được mã hóa để đảm bảo tính bảo mật.</t>
   </si>
   <si>
     <t>Người dùng có thể yêu cầu đặt lại mật khẩu nếu họ quên mật khẩu hiện tại.
@@ -175,9 +151,6 @@
     <t>Hệ thống có khả năng xuất hóa đơn cho viện phí và dịch vụ.</t>
   </si>
   <si>
-    <t>Hệ thống phải lưu trữ và quản lý hồ sơ bệnh án của bệnh nhân.</t>
-  </si>
-  <si>
     <t>Hệ thống phải có khả năng in hồ sơ bệnh án của bệnh nhân.</t>
   </si>
   <si>
@@ -208,15 +181,9 @@
     <t>Quản lí phải hỗ trợ quản lý lịch làm việc của nhân viên</t>
   </si>
   <si>
-    <t>Quản lí phải theo dõi doanh thu và chi phí của phòng khám hoặc tổ chức.</t>
-  </si>
-  <si>
     <t>Quản lí phải có khả năng tạo báo cáo tài chính.</t>
   </si>
   <si>
-    <t>Quản lí phải theo dõi hàng hóa và vật tư cần thiết cho hoạt động của phòng khám.</t>
-  </si>
-  <si>
     <t>Quản lí và nhà cung cấp phải có khả năng lập phiếu nhập và xuất kho cho hàng hóa và vật tư.</t>
   </si>
   <si>
@@ -226,15 +193,9 @@
     <t>Bác sĩ phải có khả năng thêm, sửa đổi, xóa thông tin về đơn thuốc</t>
   </si>
   <si>
-    <t>Quản lí có thể  theo dõi tình trạng của các thiết bị trong phòng khám thông qua hệ thống</t>
-  </si>
-  <si>
     <t>Hệ thống phải hỗ trợ quản lí lập kế hoạch bảo dưỡng cho các thiết bị.</t>
   </si>
   <si>
-    <t>Quản lí có thể thêm, sửa đổi, xóa thông tin về quảng cáo.</t>
-  </si>
-  <si>
     <t>Quản lí có thể thêm, sửa đổi, xóa thông tin về voucher.</t>
   </si>
   <si>
@@ -251,9 +212,6 @@
   </si>
   <si>
     <t>Quản lí có thể thêm, sửa đổi, xóa thông tin về hợp đồng cung cấp vật tư.</t>
-  </si>
-  <si>
-    <t>Quản lí có thể thêm, sửa đổi, xóa thông tin về khách hàng tiềm năng (doanh nghiệp).</t>
   </si>
   <si>
     <t>Quản lí có thể thêm, sửa đổi, xóa thông tin về phòng khám.</t>
@@ -403,7 +361,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{016603DC-DE64-4C70-921D-3C20CE6A4E2B}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,7 +378,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -716,47 +674,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8854E2F-0770-4487-8904-2AC368AD1999}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="66" zoomScaleNormal="30" zoomScalePageLayoutView="66" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="84.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -764,17 +722,17 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -782,126 +740,122 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -909,421 +863,302 @@
         <v>29</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>61</v>
+        <v>24</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>17</v>
+      <c r="B25" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>18</v>
+      <c r="B26" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Lab1.3/Lab-1.3-Requirements Linkage Traceability Matrix.xlsx
+++ b/Lab1.3/Lab-1.3-Requirements Linkage Traceability Matrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaba\OneDrive\Documents\GitHub\SE357-Pratice-class\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14205BA6-53DB-493F-9D07-B60FCA8ECA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAC7BE2-FE1F-45E9-8B55-D7DCA9A9C3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26FFCE25-151A-40F0-9F51-80939D4665D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>Đăng nhập</t>
   </si>
@@ -92,12 +92,6 @@
     <t>Theo dõi tiến độ kế hoạch điều trị</t>
   </si>
   <si>
-    <t>CRUD hợp đồng dịch vụ</t>
-  </si>
-  <si>
-    <t>CRUD hợp đồng cung cấp vật tư</t>
-  </si>
-  <si>
     <t>CRUD  thông tin phòng khám</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">CRUD lịch hẹn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xuất hóa đơn </t>
   </si>
   <si>
     <t>Acceptance Criteria</t>
@@ -148,9 +139,6 @@
 Tin nhắn phải được gửi và nhận một cách đáng tin cậy</t>
   </si>
   <si>
-    <t>Hệ thống có khả năng xuất hóa đơn cho viện phí và dịch vụ.</t>
-  </si>
-  <si>
     <t>Hệ thống phải có khả năng in hồ sơ bệnh án của bệnh nhân.</t>
   </si>
   <si>
@@ -206,12 +194,6 @@
   </si>
   <si>
     <t>Bác sĩ và bênh nhận khả năng theo dõi tiến độ kế hoạch điều trị của bệnh nhân.</t>
-  </si>
-  <si>
-    <t>Quản lí có thể thêm, sửa đổi, xóa thông tin về hợp đồng dịch vụ.</t>
-  </si>
-  <si>
-    <t>Quản lí có thể thêm, sửa đổi, xóa thông tin về hợp đồng cung cấp vật tư.</t>
   </si>
   <si>
     <t>Quản lí có thể thêm, sửa đổi, xóa thông tin về phòng khám.</t>
@@ -229,12 +211,18 @@
   <si>
     <t>Requirement</t>
   </si>
+  <si>
+    <t>CRUD thiết bị nha khoa</t>
+  </si>
+  <si>
+    <t>Quản lí có thể thêm, sửa đổi, xóa thông tin về thiết bị nha khoa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,12 +277,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -332,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -358,7 +340,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8854E2F-0770-4487-8904-2AC368AD1999}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="66" zoomScaleNormal="30" zoomScalePageLayoutView="66" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A8" zoomScale="66" zoomScaleNormal="30" zoomScalePageLayoutView="66" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,19 +684,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -722,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -740,13 +729,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -758,13 +747,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -776,13 +765,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -794,13 +783,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -812,13 +801,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
@@ -826,16 +815,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
@@ -843,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
@@ -860,16 +849,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
@@ -877,16 +866,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
@@ -894,16 +883,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
@@ -911,16 +900,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
@@ -928,16 +917,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
@@ -945,16 +934,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
@@ -962,16 +951,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
@@ -979,16 +968,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
@@ -996,16 +985,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
@@ -1013,16 +1002,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
@@ -1030,16 +1019,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
@@ -1047,16 +1036,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>51</v>
+      <c r="D21" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
@@ -1064,16 +1053,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>52</v>
+        <v>16</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
@@ -1081,16 +1070,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
@@ -1098,67 +1087,33 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="B25" s="12" t="s">
         <v>55</v>
       </c>
+      <c r="C25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Lab1.3/Lab-1.3-Requirements Linkage Traceability Matrix.xlsx
+++ b/Lab1.3/Lab-1.3-Requirements Linkage Traceability Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaba\OneDrive\Documents\GitHub\SE357-Pratice-class\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAC7BE2-FE1F-45E9-8B55-D7DCA9A9C3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42106F1D-6DB2-4FCA-B4BF-7934DAB05CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26FFCE25-151A-40F0-9F51-80939D4665D5}"/>
   </bookViews>
@@ -222,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,36 +243,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -314,38 +290,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -665,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8854E2F-0770-4487-8904-2AC368AD1999}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A8" zoomScale="66" zoomScaleNormal="30" zoomScalePageLayoutView="66" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="66" zoomScaleNormal="30" zoomScalePageLayoutView="66" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +665,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -713,15 +675,15 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -731,15 +693,15 @@
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -749,15 +711,15 @@
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -767,271 +729,271 @@
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E7" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E8" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E9" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E10" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E11" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E12" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E13" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E14" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E15" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E16" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E17" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1041,78 +1003,78 @@
       <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E21" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E22" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="E23" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="E24" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>52</v>
       </c>
     </row>
